--- a/biology/Botanique/Stanhopea_anfracta/Stanhopea_anfracta.xlsx
+++ b/biology/Botanique/Stanhopea_anfracta/Stanhopea_anfracta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stanhopea anfracta est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) et du genre Stanhopea que l'on trouve en Amérique du Sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante fleurit du printemps à l'été avec sept à treize fleurs parfumées par inflorescence. Les fleurs mesurent 8 cm de diamètre.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se trouve dans les pentes orientales de la forêt nuageuse humide poussant sur des arbres en Équateur et au Pérou à des altitudes de 1 000 à 2 200 mètres.
 </t>
@@ -573,7 +589,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante doit être cultivée à l'ombre dans un pot en écorce de sapin moyen ou en mousse de sphaigne, à des températures fraîches à chaudes et arrosée régulièrement. Elle est généralement cultivée dans des paniers avec du coir et de la tourbe pour le sol.
 </t>
